--- a/东兴馆店铺运营/沉香线香2017/快车情况/快车使用记录表.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/快车情况/快车使用记录表.xlsx
@@ -10,19 +10,20 @@
     <sheet name="食品类" sheetId="1" r:id="rId1"/>
     <sheet name="工艺品类" sheetId="2" r:id="rId2"/>
     <sheet name="沉香类" sheetId="3" r:id="rId3"/>
+    <sheet name="关键词" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20170303-20170305</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+  <si>
+    <t>点击数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉香类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,31 +31,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>长尾词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展现数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击率（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千次展现成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均点击成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接订单行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接订单金额（￥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接订单行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间接订单金额（￥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总订单行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总订单金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索/推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17694</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>39.63</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>29.65</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>8.77</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>香炉、熏香炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +224,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +276,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,47 +634,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" customWidth="1"/>
+    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>20170405</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>